--- a/data/trans_orig/P0901-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P0901-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>15402</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9451</v>
+        <v>8976</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25205</v>
+        <v>24871</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03117312093781657</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01912910788497434</v>
+        <v>0.01816852782326604</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05101534555222551</v>
+        <v>0.05033886345688929</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -765,19 +765,19 @@
         <v>24256</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15948</v>
+        <v>15129</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34891</v>
+        <v>34520</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05188599572088988</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03411474879174609</v>
+        <v>0.03236135124337468</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07463595147951944</v>
+        <v>0.07384045154929796</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -786,19 +786,19 @@
         <v>39658</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29084</v>
+        <v>28418</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>53132</v>
+        <v>53145</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04124333384912069</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03024710853994345</v>
+        <v>0.02955455928864849</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05525682719233115</v>
+        <v>0.05526997344383267</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>478662</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>468859</v>
+        <v>469193</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>484613</v>
+        <v>485088</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9688268790621835</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9489846544477745</v>
+        <v>0.9496611365431107</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9808708921150256</v>
+        <v>0.9818314721767339</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>465</v>
@@ -836,19 +836,19 @@
         <v>443233</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>432598</v>
+        <v>432969</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>451541</v>
+        <v>452360</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9481140042791101</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9253640485204805</v>
+        <v>0.9261595484507019</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9658852512082535</v>
+        <v>0.967638648756625</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>949</v>
@@ -857,19 +857,19 @@
         <v>921895</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>908421</v>
+        <v>908408</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>932469</v>
+        <v>933135</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9587566661508793</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9447431728076687</v>
+        <v>0.9447300265561672</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9697528914600565</v>
+        <v>0.9704454407113514</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>22482</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14156</v>
+        <v>14226</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35327</v>
+        <v>34039</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03056790308269688</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01924742544613977</v>
+        <v>0.01934248389599636</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04803194170109001</v>
+        <v>0.04628101568080574</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -982,19 +982,19 @@
         <v>51508</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38889</v>
+        <v>38921</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>67018</v>
+        <v>66724</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0823475395512709</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06217385362131077</v>
+        <v>0.06222459238390218</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1071444566017725</v>
+        <v>0.1066733346747873</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>69</v>
@@ -1003,19 +1003,19 @@
         <v>73990</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>57695</v>
+        <v>59519</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>91297</v>
+        <v>93398</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0543653025721606</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04239251054295787</v>
+        <v>0.04373254128945797</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06708169738266728</v>
+        <v>0.06862565816023958</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>713007</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>700162</v>
+        <v>701450</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>721333</v>
+        <v>721263</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9694320969173031</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9519680582989097</v>
+        <v>0.9537189843191942</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9807525745538602</v>
+        <v>0.9806575161040036</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>543</v>
@@ -1053,19 +1053,19 @@
         <v>573986</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>558476</v>
+        <v>558770</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>586605</v>
+        <v>586573</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9176524604487291</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8928555433982274</v>
+        <v>0.8933266653252128</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9378261463786891</v>
+        <v>0.9377754076160979</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1225</v>
@@ -1074,19 +1074,19 @@
         <v>1286992</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1269685</v>
+        <v>1267584</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1303287</v>
+        <v>1301463</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9456346974278393</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9329183026173327</v>
+        <v>0.9313743418397604</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9576074894570421</v>
+        <v>0.9562674587105421</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>31088</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21202</v>
+        <v>21586</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41934</v>
+        <v>43449</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04867702975708839</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03319781768042128</v>
+        <v>0.03379831687404208</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06565826494297575</v>
+        <v>0.0680304022245663</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -1199,19 +1199,19 @@
         <v>63111</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49350</v>
+        <v>48558</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79289</v>
+        <v>80257</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09149906348298689</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07154893326717042</v>
+        <v>0.0703997449676136</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1149546727567422</v>
+        <v>0.1163576262585992</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>90</v>
@@ -1220,19 +1220,19 @@
         <v>94199</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>77122</v>
+        <v>75824</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>112086</v>
+        <v>113105</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07091128790509409</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05805590388886974</v>
+        <v>0.05707904648049217</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08437604107073522</v>
+        <v>0.08514303138515637</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>607580</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>596734</v>
+        <v>595219</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>617466</v>
+        <v>617082</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9513229702429116</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9343417350570242</v>
+        <v>0.9319695977754335</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9668021823195787</v>
+        <v>0.9662016831259579</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>598</v>
@@ -1270,19 +1270,19 @@
         <v>626633</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>610455</v>
+        <v>609487</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>640394</v>
+        <v>641186</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9085009365170131</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8850453272432578</v>
+        <v>0.8836423737414009</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9284510667328296</v>
+        <v>0.9296002550323865</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1181</v>
@@ -1291,19 +1291,19 @@
         <v>1234213</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1216326</v>
+        <v>1215307</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1251290</v>
+        <v>1252588</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.929088712094906</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9156239589292651</v>
+        <v>0.9148569686148437</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9419440961111303</v>
+        <v>0.9429209535195079</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>37291</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27026</v>
+        <v>26926</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50295</v>
+        <v>50293</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07183125979619559</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05205776907432172</v>
+        <v>0.05186558897710689</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09688019522825692</v>
+        <v>0.09687693227946251</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>72</v>
@@ -1416,19 +1416,19 @@
         <v>73261</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59081</v>
+        <v>58390</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>91267</v>
+        <v>90099</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1420767401309496</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1145772403094944</v>
+        <v>0.1132365801069724</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1769960545929466</v>
+        <v>0.1747309239550236</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>108</v>
@@ -1437,19 +1437,19 @@
         <v>110552</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>91362</v>
+        <v>91251</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>131329</v>
+        <v>133689</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1068350316967232</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08829045963036809</v>
+        <v>0.08818310399177316</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1269142278755001</v>
+        <v>0.129194607641982</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>481856</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>468852</v>
+        <v>468854</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>492121</v>
+        <v>492221</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9281687402038044</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9031198047717431</v>
+        <v>0.9031230677205376</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9479422309256783</v>
+        <v>0.9481344110228932</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>430</v>
@@ -1487,19 +1487,19 @@
         <v>442381</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>424375</v>
+        <v>425543</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>456561</v>
+        <v>457252</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8579232598690504</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8230039454070534</v>
+        <v>0.8252690760449762</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8854227596905055</v>
+        <v>0.8867634198930275</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>878</v>
@@ -1508,19 +1508,19 @@
         <v>924237</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>903460</v>
+        <v>901100</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>943427</v>
+        <v>943538</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8931649683032769</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8730857721244999</v>
+        <v>0.8708053923580181</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9117095403696319</v>
+        <v>0.9118168960082269</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>60528</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>47684</v>
+        <v>46781</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>75691</v>
+        <v>75150</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1565212860867819</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1233078657676667</v>
+        <v>0.1209713320646485</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1957312740468156</v>
+        <v>0.1943324543372919</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>71</v>
@@ -1633,19 +1633,19 @@
         <v>72693</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>58151</v>
+        <v>57931</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>90046</v>
+        <v>90208</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1799389246537766</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1439421042539441</v>
+        <v>0.1433973973524943</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2228942852117533</v>
+        <v>0.2232940042722524</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>133</v>
@@ -1654,19 +1654,19 @@
         <v>133221</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>112604</v>
+        <v>116018</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>155808</v>
+        <v>155551</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1684859317565614</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1424114289024623</v>
+        <v>0.1467288419972003</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1970519939382606</v>
+        <v>0.1967270635288921</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>326182</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>311019</v>
+        <v>311560</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>339026</v>
+        <v>339929</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.843478713913218</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8042687259531843</v>
+        <v>0.805667545662708</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8766921342323333</v>
+        <v>0.8790286679353515</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>325</v>
@@ -1704,19 +1704,19 @@
         <v>331293</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>313940</v>
+        <v>313778</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>345835</v>
+        <v>346055</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8200610753462234</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7771057147882467</v>
+        <v>0.7767059957277477</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8560578957460562</v>
+        <v>0.8566026026475057</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>655</v>
@@ -1725,19 +1725,19 @@
         <v>657475</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>634888</v>
+        <v>635145</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>678092</v>
+        <v>674678</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8315140682434385</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8029480060617392</v>
+        <v>0.8032729364711079</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8575885710975377</v>
+        <v>0.8532711580027996</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>53656</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>41166</v>
+        <v>41943</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>66557</v>
+        <v>68265</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1833860358899951</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1406971558514404</v>
+        <v>0.1433553342894441</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2274813785811854</v>
+        <v>0.2333168524016187</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>123</v>
@@ -1850,19 +1850,19 @@
         <v>115713</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>99086</v>
+        <v>99249</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>132543</v>
+        <v>134671</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3374216256559499</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2889358239581594</v>
+        <v>0.2894106734917834</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.386495787727847</v>
+        <v>0.3927035743597195</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>180</v>
@@ -1871,19 +1871,19 @@
         <v>169369</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>149306</v>
+        <v>148284</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>191199</v>
+        <v>190710</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.266505827890589</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2349362677962342</v>
+        <v>0.2333289158395794</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3008563498867091</v>
+        <v>0.3000862107984574</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>238927</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>226026</v>
+        <v>224318</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>251417</v>
+        <v>250640</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8166139641100049</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7725186214188146</v>
+        <v>0.7666831475983824</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8593028441485596</v>
+        <v>0.8566446657105563</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>248</v>
@@ -1921,19 +1921,19 @@
         <v>227221</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>210391</v>
+        <v>208263</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>243848</v>
+        <v>243685</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6625783743440502</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6135042122721529</v>
+        <v>0.6072964256402807</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7110641760418405</v>
+        <v>0.7105893265082166</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>494</v>
@@ -1942,19 +1942,19 @@
         <v>466148</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>444318</v>
+        <v>444807</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>486211</v>
+        <v>487233</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7334941721094109</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6991436501132909</v>
+        <v>0.6999137892015429</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7650637322037658</v>
+        <v>0.7666710841604205</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>75970</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>62657</v>
+        <v>63181</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>90009</v>
+        <v>89251</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3619646224144125</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2985310398319304</v>
+        <v>0.3010274508925296</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.428852671383834</v>
+        <v>0.4252427995870643</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>132</v>
@@ -2067,19 +2067,19 @@
         <v>151592</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>128430</v>
+        <v>131350</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>169405</v>
+        <v>169061</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4539924042470159</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3846258039037369</v>
+        <v>0.3933705210647754</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5073416843777585</v>
+        <v>0.5063109684961075</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>211</v>
@@ -2088,19 +2088,19 @@
         <v>227562</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>204931</v>
+        <v>205240</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>252005</v>
+        <v>251697</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4184731190975622</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3768560566742612</v>
+        <v>0.3774244353501676</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4634224556534509</v>
+        <v>0.4628561230420393</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>133913</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>119874</v>
+        <v>120632</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>147226</v>
+        <v>146702</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6380353775855876</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5711473286161658</v>
+        <v>0.5747572004129358</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7014689601680696</v>
+        <v>0.6989725491074704</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>158</v>
@@ -2138,19 +2138,19 @@
         <v>182316</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>164503</v>
+        <v>164847</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>205478</v>
+        <v>202558</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5460075957529841</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4926583156222415</v>
+        <v>0.4936890315038925</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.615374196096263</v>
+        <v>0.6066294789352246</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>299</v>
@@ -2159,19 +2159,19 @@
         <v>316229</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>291786</v>
+        <v>292094</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>338860</v>
+        <v>338551</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5815268809024378</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5365775443465489</v>
+        <v>0.5371438769579607</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6231439433257387</v>
+        <v>0.6225755646498323</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>296417</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>263608</v>
+        <v>259917</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>332458</v>
+        <v>328866</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09046653281879337</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08045319006463482</v>
+        <v>0.07932654752445274</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1014660526857801</v>
+        <v>0.1003699306674949</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>530</v>
@@ -2284,19 +2284,19 @@
         <v>552134</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>509324</v>
+        <v>512828</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>595806</v>
+        <v>599841</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1633919315485758</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1507234917242171</v>
+        <v>0.1517604175701385</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1763159697134691</v>
+        <v>0.1775098810229274</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>830</v>
@@ -2305,19 +2305,19 @@
         <v>848551</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>793968</v>
+        <v>790056</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>902473</v>
+        <v>902454</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.127491610089047</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1192906726415923</v>
+        <v>0.1187029444064466</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1355932162914225</v>
+        <v>0.1355903025343252</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>2980126</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2944085</v>
+        <v>2947677</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3012935</v>
+        <v>3016626</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9095334671812066</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8985339473142198</v>
+        <v>0.8996300693325051</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9195468099353652</v>
+        <v>0.9206734524755471</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2767</v>
@@ -2355,19 +2355,19 @@
         <v>2827063</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2783391</v>
+        <v>2779356</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2869873</v>
+        <v>2866369</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8366080684514242</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8236840302865298</v>
+        <v>0.8224901189770721</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8492765082757826</v>
+        <v>0.8482395824298613</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5681</v>
@@ -2376,19 +2376,19 @@
         <v>5807190</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5753268</v>
+        <v>5753287</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5861773</v>
+        <v>5865685</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.872508389910953</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8644067837085774</v>
+        <v>0.8644096974656748</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8807093273584073</v>
+        <v>0.8812970555935533</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>18371</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11159</v>
+        <v>11242</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28160</v>
+        <v>29226</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04045094118160417</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02457054813280364</v>
+        <v>0.0247549543011144</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06200650989195289</v>
+        <v>0.06435460749996408</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -2744,19 +2744,19 @@
         <v>20208</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11981</v>
+        <v>12747</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30243</v>
+        <v>30694</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04697110378768816</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02784821113066599</v>
+        <v>0.02962921103551507</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07029479518572077</v>
+        <v>0.07134268412548656</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -2765,19 +2765,19 @@
         <v>38579</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27746</v>
+        <v>28242</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51612</v>
+        <v>52324</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04362285948225281</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03137327631390274</v>
+        <v>0.03193440024873043</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05835977642190604</v>
+        <v>0.05916515857366681</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>435775</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>425986</v>
+        <v>424920</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>442987</v>
+        <v>442904</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9595490588183958</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9379934901080473</v>
+        <v>0.9356453925000359</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9754294518671967</v>
+        <v>0.9752450456988856</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>402</v>
@@ -2815,19 +2815,19 @@
         <v>410022</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>399987</v>
+        <v>399536</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>418249</v>
+        <v>417483</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9530288962123118</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9297052048142792</v>
+        <v>0.9286573158745134</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.972151788869334</v>
+        <v>0.970370788964485</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>830</v>
@@ -2836,19 +2836,19 @@
         <v>845797</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>832764</v>
+        <v>832052</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>856630</v>
+        <v>856134</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9563771405177471</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.941640223578094</v>
+        <v>0.9408348414263332</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9686267236860973</v>
+        <v>0.9680655997512696</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>23985</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16341</v>
+        <v>15202</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35811</v>
+        <v>35603</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03490832178842556</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02378261229339678</v>
+        <v>0.02212526590525293</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05212010591970112</v>
+        <v>0.0518174967869397</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -2961,19 +2961,19 @@
         <v>30206</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21081</v>
+        <v>20995</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42198</v>
+        <v>42141</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04949670499831944</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03454419851717427</v>
+        <v>0.03440393862027739</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06914874512445154</v>
+        <v>0.06905531738633883</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -2982,19 +2982,19 @@
         <v>54191</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40893</v>
+        <v>40984</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>70838</v>
+        <v>69924</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04177053443559374</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03152086367530221</v>
+        <v>0.03159063073934329</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05460276341739434</v>
+        <v>0.0538976885698804</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>663102</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>651276</v>
+        <v>651484</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>670746</v>
+        <v>671885</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9650916782115745</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.947879894080299</v>
+        <v>0.9481825032130604</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9762173877066033</v>
+        <v>0.9778747340947472</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>543</v>
@@ -3032,19 +3032,19 @@
         <v>580049</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>568057</v>
+        <v>568114</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>589174</v>
+        <v>589260</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9505032950016805</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9308512548755484</v>
+        <v>0.9309446826136614</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9654558014828257</v>
+        <v>0.965596061379723</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1187</v>
@@ -3053,19 +3053,19 @@
         <v>1243151</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1226504</v>
+        <v>1227418</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1256449</v>
+        <v>1256358</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9582294655644062</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9453972365826055</v>
+        <v>0.9461023114301191</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9684791363246977</v>
+        <v>0.9684093692606562</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>43984</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33558</v>
+        <v>32736</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60503</v>
+        <v>60395</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06450530705269404</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04921527370945936</v>
+        <v>0.0480089624604323</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08873167918841462</v>
+        <v>0.08857321767510166</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>77</v>
@@ -3178,19 +3178,19 @@
         <v>84137</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>67053</v>
+        <v>66402</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>102587</v>
+        <v>103313</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1183610570733298</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09432783451956285</v>
+        <v>0.09341220547629457</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1443161062997202</v>
+        <v>0.1453375615634857</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>120</v>
@@ -3199,19 +3199,19 @@
         <v>128121</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>108954</v>
+        <v>107421</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>152244</v>
+        <v>154105</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09199364111326029</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07823181535802329</v>
+        <v>0.07713061559112738</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1093149270472858</v>
+        <v>0.1106510590085467</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>637879</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>621360</v>
+        <v>621468</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>648305</v>
+        <v>649127</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9354946929473059</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9112683208115843</v>
+        <v>0.9114267823248984</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9507847262905407</v>
+        <v>0.9519910375395678</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>590</v>
@@ -3249,19 +3249,19 @@
         <v>626713</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>608263</v>
+        <v>607537</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>643797</v>
+        <v>644448</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8816389429266702</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8556838937002799</v>
+        <v>0.8546624384365142</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9056721654804371</v>
+        <v>0.9065877945237054</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1198</v>
@@ -3270,19 +3270,19 @@
         <v>1264591</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1240468</v>
+        <v>1238607</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1283758</v>
+        <v>1285291</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9080063588867398</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8906850729527142</v>
+        <v>0.8893489409914532</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9217681846419767</v>
+        <v>0.9228693844088726</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>54344</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41346</v>
+        <v>40940</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71991</v>
+        <v>70383</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08841939962773214</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06727170024163184</v>
+        <v>0.0666112511541007</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1171320472506251</v>
+        <v>0.1145148224290685</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>87</v>
@@ -3395,19 +3395,19 @@
         <v>96478</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>79471</v>
+        <v>79134</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>117734</v>
+        <v>118245</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1565698789636633</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1289689321101163</v>
+        <v>0.1284227630143932</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1910644614531384</v>
+        <v>0.1918936852253754</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>136</v>
@@ -3416,19 +3416,19 @@
         <v>150822</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>128331</v>
+        <v>126709</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>178164</v>
+        <v>175506</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1225384487527646</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1042648583320046</v>
+        <v>0.1029468357053644</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1447527782017499</v>
+        <v>0.1425929736958413</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>560273</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>542626</v>
+        <v>544234</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>573271</v>
+        <v>573677</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9115806003722678</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8828679527493749</v>
+        <v>0.8854851775709315</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9327282997583682</v>
+        <v>0.9333887488458993</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>452</v>
@@ -3466,19 +3466,19 @@
         <v>519721</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>498465</v>
+        <v>497954</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>536728</v>
+        <v>537065</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8434301210363367</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8089355385468617</v>
+        <v>0.808106314774625</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8710310678898838</v>
+        <v>0.8715772369856071</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>951</v>
@@ -3487,19 +3487,19 @@
         <v>1079994</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1052652</v>
+        <v>1055310</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1102485</v>
+        <v>1104107</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8774615512472353</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8552472217982503</v>
+        <v>0.8574070263041588</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8957351416679954</v>
+        <v>0.8970531642946358</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>69579</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>54372</v>
+        <v>54609</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>84974</v>
+        <v>84107</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1620273980624842</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1266153230028813</v>
+        <v>0.1271653884383978</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1978775527542647</v>
+        <v>0.19585685925093</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>120</v>
@@ -3612,19 +3612,19 @@
         <v>130320</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>110932</v>
+        <v>110954</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>151997</v>
+        <v>150591</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.291022925924932</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.247726483503992</v>
+        <v>0.2477758057688274</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3394314287091457</v>
+        <v>0.3362907149918959</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>186</v>
@@ -3633,19 +3633,19 @@
         <v>199899</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>174823</v>
+        <v>173984</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>226882</v>
+        <v>224786</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2278758673267462</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1992895950847038</v>
+        <v>0.1983334531914351</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2586346295623584</v>
+        <v>0.256245842135955</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>359850</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>344455</v>
+        <v>345322</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>375057</v>
+        <v>374820</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8379726019375159</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8021224472457352</v>
+        <v>0.80414314074907</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8733846769971185</v>
+        <v>0.8728346115616022</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>286</v>
@@ -3683,19 +3683,19 @@
         <v>317480</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>295803</v>
+        <v>297209</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>336868</v>
+        <v>336846</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.708977074075068</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6605685712908544</v>
+        <v>0.6637092850081046</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7522735164960079</v>
+        <v>0.7522241942311726</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>613</v>
@@ -3704,19 +3704,19 @@
         <v>677330</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>650347</v>
+        <v>652443</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>702406</v>
+        <v>703245</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7721241326732537</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7413653704376416</v>
+        <v>0.743754157864045</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8007104049152962</v>
+        <v>0.801666546808565</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>81355</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>66154</v>
+        <v>65433</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>98234</v>
+        <v>99952</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2626152905591889</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2135471034873785</v>
+        <v>0.2112194456280207</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3171036413092557</v>
+        <v>0.3226495023877826</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>138</v>
@@ -3829,19 +3829,19 @@
         <v>140173</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>123021</v>
+        <v>120501</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>158158</v>
+        <v>158444</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3959725860206425</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3475195526713315</v>
+        <v>0.3404019282973976</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4467795486352902</v>
+        <v>0.4475877842344806</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>208</v>
@@ -3850,19 +3850,19 @@
         <v>221527</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>195314</v>
+        <v>198873</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>249328</v>
+        <v>247327</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3337349295352398</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2942436984410798</v>
+        <v>0.2996054346920548</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3756175784900052</v>
+        <v>0.3726028332088546</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>228431</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>211552</v>
+        <v>209834</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>243632</v>
+        <v>244353</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7373847094408111</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6828963586907446</v>
+        <v>0.6773504976122176</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.786452896512622</v>
+        <v>0.78878055437198</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>206</v>
@@ -3900,19 +3900,19 @@
         <v>213823</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>195838</v>
+        <v>195552</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>230975</v>
+        <v>233495</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6040274139793576</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5532204513647097</v>
+        <v>0.5524122157655194</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6524804473286684</v>
+        <v>0.6595980717026029</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>418</v>
@@ -3921,19 +3921,19 @@
         <v>442255</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>414454</v>
+        <v>416455</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>468468</v>
+        <v>464909</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6662650704647602</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6243824215099949</v>
+        <v>0.6273971667911457</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7057563015589202</v>
+        <v>0.7003945653079453</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>119707</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>103538</v>
+        <v>103491</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>137075</v>
+        <v>136589</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4791145586966978</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4143995843487247</v>
+        <v>0.4142116692530643</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5486252180315128</v>
+        <v>0.5466808475007415</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>218</v>
@@ -4046,19 +4046,19 @@
         <v>241393</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>220722</v>
+        <v>220094</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>260201</v>
+        <v>261782</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6205810836815341</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5674398004834771</v>
+        <v>0.5658249887656213</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6689322194512339</v>
+        <v>0.6729989024760032</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>324</v>
@@ -4067,19 +4067,19 @@
         <v>361100</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>334442</v>
+        <v>333324</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>387850</v>
+        <v>388859</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5652525295425399</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.523522626830461</v>
+        <v>0.5217727677656998</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6071255702500351</v>
+        <v>0.6087053900811017</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>130144</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>112776</v>
+        <v>113262</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>146313</v>
+        <v>146360</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5208854413033022</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4513747819684871</v>
+        <v>0.4533191524992585</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5856004156512753</v>
+        <v>0.5857883307469357</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>132</v>
@@ -4117,19 +4117,19 @@
         <v>147586</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>128778</v>
+        <v>127197</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>168257</v>
+        <v>168885</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3794189163184659</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3310677805487661</v>
+        <v>0.3270010975239965</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4325601995165229</v>
+        <v>0.4341750112343783</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>248</v>
@@ -4138,19 +4138,19 @@
         <v>277730</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>250980</v>
+        <v>249971</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>304388</v>
+        <v>305506</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.43474747045746</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3928744297499649</v>
+        <v>0.3912946099188983</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.476477373169539</v>
+        <v>0.4782272322343001</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>411325</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>369597</v>
+        <v>372897</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>451926</v>
+        <v>450122</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1200324195083661</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1078553968080006</v>
+        <v>0.1088186411950871</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1318808105064159</v>
+        <v>0.1313541299683496</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>687</v>
@@ -4263,19 +4263,19 @@
         <v>742915</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>700032</v>
+        <v>692608</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>798929</v>
+        <v>794393</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2087831347405051</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1967315831844514</v>
+        <v>0.1946451627217343</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2245248433481863</v>
+        <v>0.2232502212352256</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1062</v>
@@ -4284,19 +4284,19 @@
         <v>1154239</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1090623</v>
+        <v>1092167</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1224813</v>
+        <v>1221679</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1652433716024777</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1561358389762603</v>
+        <v>0.1563569777914434</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1753468811074753</v>
+        <v>0.1748981137437628</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3015454</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2974853</v>
+        <v>2976657</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3057182</v>
+        <v>3053882</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8799675804916339</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8681191894935841</v>
+        <v>0.8686458700316504</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8921446031919993</v>
+        <v>0.8911813588049129</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2611</v>
@@ -4334,19 +4334,19 @@
         <v>2815394</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2759380</v>
+        <v>2763916</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2858277</v>
+        <v>2865701</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.791216865259495</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.775475156651814</v>
+        <v>0.7767497787647741</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8032684168155488</v>
+        <v>0.8053548372782656</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5445</v>
@@ -4355,19 +4355,19 @@
         <v>5830849</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5760275</v>
+        <v>5763409</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5894465</v>
+        <v>5892921</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8347566283975223</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8246531188925247</v>
+        <v>0.8251018862562373</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8438641610237397</v>
+        <v>0.8436430222085567</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>8686</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3910</v>
+        <v>3880</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16622</v>
+        <v>16939</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02070682259628112</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009322347579542865</v>
+        <v>0.009249681375088139</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03962798698085154</v>
+        <v>0.04038213896623709</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -4723,19 +4723,19 @@
         <v>12977</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7493</v>
+        <v>6916</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21564</v>
+        <v>20880</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03279026012510039</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01893351446424587</v>
+        <v>0.01747600842199732</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05448821293732164</v>
+        <v>0.05276102007524054</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -4744,19 +4744,19 @@
         <v>21663</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13424</v>
+        <v>14309</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32262</v>
+        <v>32885</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02657283738787138</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01646646104231967</v>
+        <v>0.01755243679854624</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03957417093245903</v>
+        <v>0.04033842755639185</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>410777</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>402841</v>
+        <v>402524</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>415553</v>
+        <v>415583</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9792931774037189</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9603720130191484</v>
+        <v>0.959617861033763</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9906776524204571</v>
+        <v>0.9907503186249118</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>391</v>
@@ -4794,19 +4794,19 @@
         <v>382778</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>374191</v>
+        <v>374875</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>388262</v>
+        <v>388839</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9672097398748997</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9455117870626786</v>
+        <v>0.9472389799247595</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9810664855357542</v>
+        <v>0.9825239915780026</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>776</v>
@@ -4815,19 +4815,19 @@
         <v>793555</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>782956</v>
+        <v>782333</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>801794</v>
+        <v>800909</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9734271626121286</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9604258290675409</v>
+        <v>0.9596615724436083</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9835335389576803</v>
+        <v>0.9824475632014539</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>26181</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17126</v>
+        <v>17138</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37970</v>
+        <v>37769</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04433709364391436</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02900236641899928</v>
+        <v>0.02902282430972691</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06430151230963631</v>
+        <v>0.0639613842828618</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -4940,19 +4940,19 @@
         <v>34410</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24457</v>
+        <v>23500</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46652</v>
+        <v>46702</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06106070848319289</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04339783129205991</v>
+        <v>0.04170096096845881</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08278367136287976</v>
+        <v>0.08287177580904441</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>58</v>
@@ -4961,19 +4961,19 @@
         <v>60591</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46750</v>
+        <v>46542</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>77447</v>
+        <v>78171</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0525036112296611</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0405094973816844</v>
+        <v>0.04032952241417641</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06710948890385121</v>
+        <v>0.0677367163338969</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>564315</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>552526</v>
+        <v>552727</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>573370</v>
+        <v>573358</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9556629063560856</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9356984876903638</v>
+        <v>0.9360386157171385</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9709976335810008</v>
+        <v>0.9709771756902731</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>545</v>
@@ -5011,19 +5011,19 @@
         <v>529134</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>516892</v>
+        <v>516842</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>539087</v>
+        <v>540044</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9389392915168071</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9172163286371201</v>
+        <v>0.9171282241909559</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9566021687079401</v>
+        <v>0.9582990390315413</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1088</v>
@@ -5032,19 +5032,19 @@
         <v>1093449</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1076593</v>
+        <v>1075869</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1107290</v>
+        <v>1107498</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9474963887703389</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.932890511096149</v>
+        <v>0.9322632836661031</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9594905026183157</v>
+        <v>0.9596704775858236</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>28604</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18876</v>
+        <v>19690</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39386</v>
+        <v>41493</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04275056352312821</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02821049474301337</v>
+        <v>0.02942777181563454</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05886505672566916</v>
+        <v>0.06201417311490268</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -5157,19 +5157,19 @@
         <v>58922</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45930</v>
+        <v>45818</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>76497</v>
+        <v>74361</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08908900925871091</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06944537825349774</v>
+        <v>0.06927576955650519</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1156614956120732</v>
+        <v>0.1124318522428464</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>82</v>
@@ -5178,19 +5178,19 @@
         <v>87527</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>71391</v>
+        <v>71005</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>108239</v>
+        <v>108129</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0657855161775197</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05365795769484241</v>
+        <v>0.05336758599527986</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08135336361590728</v>
+        <v>0.08127022392957232</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>640493</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>629711</v>
+        <v>627604</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>650221</v>
+        <v>649407</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9572494364768718</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9411349432743309</v>
+        <v>0.9379858268850974</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9717895052569866</v>
+        <v>0.9705722281843654</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>610</v>
@@ -5228,19 +5228,19 @@
         <v>602464</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>584889</v>
+        <v>587025</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>615456</v>
+        <v>615568</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9109109907412891</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8843385043879268</v>
+        <v>0.8875681477571536</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9305546217465023</v>
+        <v>0.9307242304434951</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1221</v>
@@ -5249,19 +5249,19 @@
         <v>1242956</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1222244</v>
+        <v>1222354</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1259092</v>
+        <v>1259478</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9342144838224803</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9186466363840931</v>
+        <v>0.9187297760704277</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9463420423051578</v>
+        <v>0.9466324140047202</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>66879</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51983</v>
+        <v>52585</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85363</v>
+        <v>86038</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1035202628357993</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08046244201699747</v>
+        <v>0.08139465336730514</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1321309398358797</v>
+        <v>0.1331764177047102</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>81</v>
@@ -5374,19 +5374,19 @@
         <v>86723</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>68750</v>
+        <v>69257</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>106047</v>
+        <v>103551</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.133610042163424</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1059202863363056</v>
+        <v>0.1067012120569095</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1633810247151075</v>
+        <v>0.1595357807308411</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>140</v>
@@ -5395,19 +5395,19 @@
         <v>153602</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>131126</v>
+        <v>130752</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>179886</v>
+        <v>179273</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1186003348634176</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1012459531008376</v>
+        <v>0.1009570679701449</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1388949730520568</v>
+        <v>0.1384210799864798</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>579169</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>560685</v>
+        <v>560010</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>594065</v>
+        <v>593463</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8964797371642007</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8678690601641201</v>
+        <v>0.8668235822952912</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9195375579830025</v>
+        <v>0.9186053466326949</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>521</v>
@@ -5445,19 +5445,19 @@
         <v>562354</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>543030</v>
+        <v>545526</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>580327</v>
+        <v>579820</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.866389957836576</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8366189752848925</v>
+        <v>0.8404642192691596</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8940797136636943</v>
+        <v>0.8932987879430906</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1044</v>
@@ -5466,19 +5466,19 @@
         <v>1141523</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1115239</v>
+        <v>1115852</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1163999</v>
+        <v>1164373</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8813996651365824</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8611050269479432</v>
+        <v>0.8615789200135201</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8987540468991623</v>
+        <v>0.8990429320298549</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>63304</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>48210</v>
+        <v>48016</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>80431</v>
+        <v>81291</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1324577688994111</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1008743669005134</v>
+        <v>0.1004681510575107</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1682936416836066</v>
+        <v>0.170093168458637</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>107</v>
@@ -5591,19 +5591,19 @@
         <v>120976</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>100374</v>
+        <v>100076</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>142496</v>
+        <v>143113</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2434869109260937</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2020218361436001</v>
+        <v>0.2014208744838268</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2867996329878454</v>
+        <v>0.2880422297072199</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>161</v>
@@ -5612,19 +5612,19 @@
         <v>184280</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>159181</v>
+        <v>159492</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>209907</v>
+        <v>212815</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.189050491415456</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1633019946924918</v>
+        <v>0.1636210641679216</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2153403972226454</v>
+        <v>0.2183235161046115</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>414614</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>397487</v>
+        <v>396627</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>429708</v>
+        <v>429902</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8675422311005889</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8317063583163937</v>
+        <v>0.8299068315413631</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8991256330994866</v>
+        <v>0.8995318489424894</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>326</v>
@@ -5662,19 +5662,19 @@
         <v>375873</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>354353</v>
+        <v>353736</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>396475</v>
+        <v>396773</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7565130890739064</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7132003670121546</v>
+        <v>0.7119577702927802</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7979781638564</v>
+        <v>0.7985791255161732</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>696</v>
@@ -5683,19 +5683,19 @@
         <v>790487</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>764860</v>
+        <v>761952</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>815586</v>
+        <v>815275</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8109495085845441</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7846596027773545</v>
+        <v>0.7816764838953885</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8366980053075083</v>
+        <v>0.8363789358320783</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>64185</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>49190</v>
+        <v>50345</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>79424</v>
+        <v>77851</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1919809292164322</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1471300264657479</v>
+        <v>0.1505837750393871</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2375620231015508</v>
+        <v>0.2328558695580255</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>134</v>
@@ -5808,19 +5808,19 @@
         <v>143483</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>125208</v>
+        <v>123910</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>163521</v>
+        <v>163155</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3798241940149641</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3314468511854801</v>
+        <v>0.3280118732133456</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4328687485175562</v>
+        <v>0.4318976124995104</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>196</v>
@@ -5829,19 +5829,19 @@
         <v>207668</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>183202</v>
+        <v>183996</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>232127</v>
+        <v>234724</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2916310414510955</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.257273276493819</v>
+        <v>0.2583883415564793</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.325978870004647</v>
+        <v>0.3296261548131612</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>270145</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>254906</v>
+        <v>256479</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>285140</v>
+        <v>283985</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8080190707835678</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7624379768984492</v>
+        <v>0.7671441304419747</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.852869973534252</v>
+        <v>0.8494162249606131</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>220</v>
@@ -5879,19 +5879,19 @@
         <v>234279</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>214241</v>
+        <v>214607</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>252554</v>
+        <v>253852</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6201758059850359</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5671312514824436</v>
+        <v>0.5681023875004896</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6685531488145198</v>
+        <v>0.6719881267866544</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>483</v>
@@ -5900,19 +5900,19 @@
         <v>504424</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>479965</v>
+        <v>477368</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>528890</v>
+        <v>528096</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7083689585489045</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.674021129995353</v>
+        <v>0.6703738451868387</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7427267235061809</v>
+        <v>0.7416116584435207</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>97860</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>83537</v>
+        <v>84328</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>112350</v>
+        <v>112461</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3807822878699701</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.32504730306498</v>
+        <v>0.3281269826451996</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4371644763309524</v>
+        <v>0.4375930785089338</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>172</v>
@@ -6025,19 +6025,19 @@
         <v>231827</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>208176</v>
+        <v>208992</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>253728</v>
+        <v>253186</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5793217931787662</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5202195162919273</v>
+        <v>0.5222583447436669</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6340533404396882</v>
+        <v>0.6326976391145029</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>284</v>
@@ -6046,19 +6046,19 @@
         <v>329687</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>302016</v>
+        <v>301262</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>355816</v>
+        <v>359040</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5016790388129621</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4595732451878571</v>
+        <v>0.458425320763456</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5414397547640778</v>
+        <v>0.5463447491144449</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>159138</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>144648</v>
+        <v>144537</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>173461</v>
+        <v>172670</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6192177121300299</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5628355236690475</v>
+        <v>0.5624069214910659</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6749526969350198</v>
+        <v>0.6718730173548005</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>129</v>
@@ -6096,19 +6096,19 @@
         <v>168342</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>146441</v>
+        <v>146983</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>191993</v>
+        <v>191177</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4206782068212338</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3659466595603117</v>
+        <v>0.367302360885497</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4797804837080727</v>
+        <v>0.4777416552563331</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>319</v>
@@ -6117,19 +6117,19 @@
         <v>327480</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>301351</v>
+        <v>298127</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>355151</v>
+        <v>355905</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4983209611870379</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4585602452359222</v>
+        <v>0.4536552508855551</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5404267548121429</v>
+        <v>0.541574679236544</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>355699</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>318976</v>
+        <v>319703</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>390235</v>
+        <v>390059</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1047915443360537</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0939726032463061</v>
+        <v>0.09418679776645994</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1149660775426758</v>
+        <v>0.1149141306645992</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>596</v>
@@ -6242,19 +6242,19 @@
         <v>689319</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>643483</v>
+        <v>640572</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>742748</v>
+        <v>742852</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1944732880956528</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1815419577025603</v>
+        <v>0.1807205435782121</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2095469474473365</v>
+        <v>0.2095764110453334</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>942</v>
@@ -6263,19 +6263,19 @@
         <v>1045018</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>986674</v>
+        <v>984030</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1105051</v>
+        <v>1104885</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1506029925651535</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1421947176966632</v>
+        <v>0.1418136772379116</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1592546838866282</v>
+        <v>0.1592307219938988</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3038651</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3004115</v>
+        <v>3004291</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3075374</v>
+        <v>3074647</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8952084556639464</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8850339224573242</v>
+        <v>0.8850858693354009</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9060273967536943</v>
+        <v>0.9058132022335401</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2742</v>
@@ -6313,19 +6313,19 @@
         <v>2855223</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2801794</v>
+        <v>2801690</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2901059</v>
+        <v>2903970</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8055267119043471</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7904530525526636</v>
+        <v>0.7904235889546668</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8184580422974397</v>
+        <v>0.8192794564217879</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5627</v>
@@ -6334,19 +6334,19 @@
         <v>5893874</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5833841</v>
+        <v>5834007</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5952218</v>
+        <v>5954862</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8493970074348465</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8407453161133719</v>
+        <v>0.8407692780061014</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8578052823033369</v>
+        <v>0.8581863227620891</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>7698</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1442</v>
+        <v>1556</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20665</v>
+        <v>24150</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01887796358942207</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003536826073220894</v>
+        <v>0.003816423275158629</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05067613339136207</v>
+        <v>0.0592211586749937</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -6702,19 +6702,19 @@
         <v>17735</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8390</v>
+        <v>8149</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38263</v>
+        <v>33962</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04892234342813363</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02314402196660233</v>
+        <v>0.02247994298099056</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1055498592761214</v>
+        <v>0.09368503566373573</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -6723,19 +6723,19 @@
         <v>25433</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11196</v>
+        <v>13842</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43318</v>
+        <v>45331</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03301709930837284</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01453427909011945</v>
+        <v>0.01796910769215635</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05623439834159365</v>
+        <v>0.05884837985292467</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>400095</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>387128</v>
+        <v>383643</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>406351</v>
+        <v>406237</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9811220364105779</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.949323866608638</v>
+        <v>0.9407788413250064</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.996463173926779</v>
+        <v>0.9961835767248414</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>199</v>
@@ -6773,19 +6773,19 @@
         <v>344777</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>324249</v>
+        <v>328550</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>354122</v>
+        <v>354363</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9510776565718663</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8944501407238786</v>
+        <v>0.9063149643362645</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9768559780333977</v>
+        <v>0.9775200570190097</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>368</v>
@@ -6794,19 +6794,19 @@
         <v>744872</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>726987</v>
+        <v>724974</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>759109</v>
+        <v>756463</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9669829006916272</v>
+        <v>0.9669829006916271</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9437656016584064</v>
+        <v>0.9411516201470748</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9854657209098813</v>
+        <v>0.9820308923078435</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>32573</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20362</v>
+        <v>20956</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48295</v>
+        <v>49175</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06830239692750165</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0426970173961001</v>
+        <v>0.04394388223940886</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1012706435260365</v>
+        <v>0.1031157196148004</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -6919,19 +6919,19 @@
         <v>26264</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17287</v>
+        <v>17403</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38418</v>
+        <v>38081</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05247609723192829</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03453897456329452</v>
+        <v>0.03477065796862796</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07675784756157623</v>
+        <v>0.07608545474292611</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -6940,19 +6940,19 @@
         <v>58837</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42596</v>
+        <v>43855</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>76475</v>
+        <v>78677</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0601980670665721</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04358083672443785</v>
+        <v>0.04486898632411394</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07824411748377431</v>
+        <v>0.08049658868267752</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>444317</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>428595</v>
+        <v>427715</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>456528</v>
+        <v>455934</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9316976030724984</v>
+        <v>0.9316976030724983</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8987293564739633</v>
+        <v>0.8968842803851995</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9573029826038998</v>
+        <v>0.9560561177605911</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>435</v>
@@ -6990,19 +6990,19 @@
         <v>474240</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>462086</v>
+        <v>462423</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>483217</v>
+        <v>483101</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9475239027680717</v>
+        <v>0.9475239027680716</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9232421524384237</v>
+        <v>0.9239145452570742</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9654610254367054</v>
+        <v>0.9652293420313721</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>715</v>
@@ -7011,19 +7011,19 @@
         <v>918557</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>900919</v>
+        <v>898717</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>934798</v>
+        <v>933539</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.939801932933428</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9217558825162258</v>
+        <v>0.9195034113173224</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9564191632755622</v>
+        <v>0.9551310136758859</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>45547</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33304</v>
+        <v>32189</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60805</v>
+        <v>59972</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07336306799832977</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05364381417844107</v>
+        <v>0.05184837000775619</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09794067188760829</v>
+        <v>0.09659924669764562</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>87</v>
@@ -7136,19 +7136,19 @@
         <v>64982</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>53856</v>
+        <v>52321</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78501</v>
+        <v>77944</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1044495974103042</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08656643927876809</v>
+        <v>0.08409879762493044</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1261793356417246</v>
+        <v>0.1252844511790712</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>126</v>
@@ -7157,19 +7157,19 @@
         <v>110529</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>92866</v>
+        <v>92558</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>130466</v>
+        <v>131332</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08892261941455822</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07471292981504116</v>
+        <v>0.07446480581480491</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.104962438502188</v>
+        <v>0.1056592715541425</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>575290</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>560032</v>
+        <v>560865</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>587533</v>
+        <v>588648</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9266369320016703</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9020593281123919</v>
+        <v>0.9034007533023544</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9463561858215588</v>
+        <v>0.9481516299922439</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>759</v>
@@ -7207,19 +7207,19 @@
         <v>557157</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>543638</v>
+        <v>544195</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>568283</v>
+        <v>569818</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8955504025896959</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8738206643582752</v>
+        <v>0.8747155488209287</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9134335607212321</v>
+        <v>0.9159012023750694</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1266</v>
@@ -7228,19 +7228,19 @@
         <v>1132447</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1112510</v>
+        <v>1111644</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1150110</v>
+        <v>1150418</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9110773805854419</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.895037561497812</v>
+        <v>0.8943407284458577</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9252870701849588</v>
+        <v>0.925535194185195</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>94984</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>77490</v>
+        <v>76325</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>115224</v>
+        <v>116216</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1357852327206289</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1107770128372024</v>
+        <v>0.1091117523774618</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1647206801336281</v>
+        <v>0.1661382707316193</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>180</v>
@@ -7353,19 +7353,19 @@
         <v>119594</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>104176</v>
+        <v>105953</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>136941</v>
+        <v>135519</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1624378514008538</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1414972457569903</v>
+        <v>0.143910711220964</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1859999132911539</v>
+        <v>0.1840685730127334</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>261</v>
@@ -7374,19 +7374,19 @@
         <v>214577</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>188696</v>
+        <v>189030</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>242337</v>
+        <v>239968</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1494524539152623</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1314259776960322</v>
+        <v>0.1316587034050492</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1687869475232237</v>
+        <v>0.1671367314865912</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>604529</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>584289</v>
+        <v>583297</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>622023</v>
+        <v>623188</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8642147672793711</v>
+        <v>0.864214767279371</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8352793198663722</v>
+        <v>0.8338617292683808</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8892229871627976</v>
+        <v>0.8908882476225383</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>960</v>
@@ -7424,19 +7424,19 @@
         <v>616649</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>599302</v>
+        <v>600724</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>632067</v>
+        <v>630290</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8375621485991463</v>
+        <v>0.8375621485991462</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8140000867088462</v>
+        <v>0.8159314269872667</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8585027542430097</v>
+        <v>0.856089288779036</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1543</v>
@@ -7445,19 +7445,19 @@
         <v>1221179</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1193419</v>
+        <v>1195788</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1247060</v>
+        <v>1246726</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8505475460847376</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.831213052476776</v>
+        <v>0.832863268513409</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8685740223039676</v>
+        <v>0.8683412965949507</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>120550</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>99799</v>
+        <v>101506</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>139975</v>
+        <v>140525</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1978350468366442</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1637806467170824</v>
+        <v>0.1665815211091762</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2297139825673458</v>
+        <v>0.2306153543463512</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>237</v>
@@ -7570,19 +7570,19 @@
         <v>152034</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>137097</v>
+        <v>136931</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>172711</v>
+        <v>168290</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2497054130344502</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2251711109294806</v>
+        <v>0.224899693623328</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2836655846828958</v>
+        <v>0.2764046075539897</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>361</v>
@@ -7591,19 +7591,19 @@
         <v>272585</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>245859</v>
+        <v>246907</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>299070</v>
+        <v>298454</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2237597757546803</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.201820924327458</v>
+        <v>0.2026817356874529</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2455013518699739</v>
+        <v>0.2449956075041926</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>488796</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>469371</v>
+        <v>468821</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>509547</v>
+        <v>507840</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8021649531633558</v>
+        <v>0.8021649531633557</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7702860174326542</v>
+        <v>0.7693846456536485</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8362193532829174</v>
+        <v>0.8334184788908239</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>765</v>
@@ -7641,19 +7641,19 @@
         <v>456821</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>436144</v>
+        <v>440565</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>471758</v>
+        <v>471924</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7502945869655496</v>
+        <v>0.7502945869655498</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7163344153171043</v>
+        <v>0.7235953924460103</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7748288890705195</v>
+        <v>0.7751003063766722</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1304</v>
@@ -7662,19 +7662,19 @@
         <v>945617</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>919132</v>
+        <v>919748</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>972343</v>
+        <v>971295</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7762402242453196</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7544986481300259</v>
+        <v>0.7550043924958074</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.798179075672542</v>
+        <v>0.7973182643125472</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>70172</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>58630</v>
+        <v>57257</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>84686</v>
+        <v>84039</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1726268982625622</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1442347480649102</v>
+        <v>0.1408549339944555</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2083338270270895</v>
+        <v>0.2067409025017215</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>237</v>
@@ -7787,19 +7787,19 @@
         <v>131175</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>116913</v>
+        <v>117621</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>144882</v>
+        <v>146252</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2986905344169134</v>
+        <v>0.2986905344169135</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2662148336659534</v>
+        <v>0.2678288107942456</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3299034916070855</v>
+        <v>0.3330218710080675</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>335</v>
@@ -7808,19 +7808,19 @@
         <v>201347</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>181985</v>
+        <v>183278</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>219960</v>
+        <v>220990</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2380939975114394</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2151986695011751</v>
+        <v>0.216727467822769</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2601045276643837</v>
+        <v>0.2613226525099779</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>336321</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>321807</v>
+        <v>322454</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>347863</v>
+        <v>349236</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8273731017374376</v>
+        <v>0.8273731017374377</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7916661729729104</v>
+        <v>0.7932590974982782</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8557652519350895</v>
+        <v>0.8591450660055444</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>590</v>
@@ -7858,19 +7858,19 @@
         <v>307991</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>294284</v>
+        <v>292914</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>322253</v>
+        <v>321545</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7013094655830866</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6700965083929141</v>
+        <v>0.6669781289919325</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7337851663340462</v>
+        <v>0.7321711892057543</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1061</v>
@@ -7879,19 +7879,19 @@
         <v>644313</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>625700</v>
+        <v>624670</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>663675</v>
+        <v>662382</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7619060024885606</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7398954723356164</v>
+        <v>0.738677347490022</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7848013304988251</v>
+        <v>0.7832725321772309</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>109480</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>96291</v>
+        <v>95282</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>123948</v>
+        <v>124814</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3534968066301014</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3109116234331497</v>
+        <v>0.3076520152236759</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4002126881264488</v>
+        <v>0.4030090858669417</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>491</v>
@@ -8004,19 +8004,19 @@
         <v>262248</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>245697</v>
+        <v>247444</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>278404</v>
+        <v>279219</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5650146275964414</v>
+        <v>0.5650146275964413</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5293568879074267</v>
+        <v>0.5331203829390503</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5998234817047401</v>
+        <v>0.6015792854487997</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>650</v>
@@ -8025,19 +8025,19 @@
         <v>371728</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>351731</v>
+        <v>351042</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>394624</v>
+        <v>393396</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4803620843519957</v>
+        <v>0.4803620843519956</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4545209361961104</v>
+        <v>0.453631227409211</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5099493027702936</v>
+        <v>0.5083628470052489</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>200226</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>185758</v>
+        <v>184892</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>213415</v>
+        <v>214424</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6465031933698986</v>
+        <v>0.6465031933698985</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5997873118735509</v>
+        <v>0.5969909141330582</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6890883765668502</v>
+        <v>0.6923479847763239</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>389</v>
@@ -8075,19 +8075,19 @@
         <v>201895</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>185739</v>
+        <v>184924</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>218446</v>
+        <v>216699</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4349853724035586</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4001765182952599</v>
+        <v>0.3984207145511998</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4706431120925731</v>
+        <v>0.4668796170609495</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>687</v>
@@ -8096,19 +8096,19 @@
         <v>402121</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>379225</v>
+        <v>380453</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>422118</v>
+        <v>422807</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5196379156480043</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4900506972297065</v>
+        <v>0.4916371529947511</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5454790638038897</v>
+        <v>0.546368772590789</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>481003</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>442495</v>
+        <v>438902</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>524917</v>
+        <v>521446</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1362390907504479</v>
+        <v>0.1362390907504478</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1253320372372146</v>
+        <v>0.1243143634798648</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.14867744643235</v>
+        <v>0.1476942797834256</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1264</v>
@@ -8221,19 +8221,19 @@
         <v>774032</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>736143</v>
+        <v>732393</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>814877</v>
+        <v>816535</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2073173454063106</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1971689094370952</v>
+        <v>0.1961645899983037</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.21825723325394</v>
+        <v>0.2187012870297135</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1790</v>
@@ -8242,19 +8242,19 @@
         <v>1255035</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1202179</v>
+        <v>1189095</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1317873</v>
+        <v>1310263</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1727712952341451</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1654950035265162</v>
+        <v>0.1636937698425313</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1814216871521063</v>
+        <v>0.1803740377201193</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3049576</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3005662</v>
+        <v>3009133</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3088084</v>
+        <v>3091677</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8637609092495522</v>
+        <v>0.8637609092495521</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8513225535676501</v>
+        <v>0.8523057202165749</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8746679627627857</v>
+        <v>0.8756856365201354</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4097</v>
@@ -8292,19 +8292,19 @@
         <v>2959531</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2918686</v>
+        <v>2917028</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2997420</v>
+        <v>3001170</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7926826545936895</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7817427667460599</v>
+        <v>0.7812987129702864</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8028310905629047</v>
+        <v>0.8038354100016961</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6944</v>
@@ -8313,19 +8313,19 @@
         <v>6009107</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5946269</v>
+        <v>5953879</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6061963</v>
+        <v>6075047</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.827228704765855</v>
+        <v>0.8272287047658547</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8185783128478937</v>
+        <v>0.8196259622798807</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8345049964734839</v>
+        <v>0.8363062301574687</v>
       </c>
     </row>
     <row r="27">
